--- a/kartkówki/Medium.xlsx
+++ b/kartkówki/Medium.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>lp.</t>
   </si>
@@ -108,6 +108,9 @@
   </si>
   <si>
     <t>W notatkach z boku widać 2215.. Nie wiem skąd 5, ale 221 to odpowiedź</t>
+  </si>
+  <si>
+    <t>b</t>
   </si>
 </sst>
 </file>
@@ -572,19 +575,19 @@
     <tableColumn id="11" name="Suma" dataDxfId="5">
       <calculatedColumnFormula>SUM(Tabela1[[#This Row],[1]:[7]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" name="Kartkówka Easy" dataDxfId="0"/>
+    <tableColumn id="12" name="Kartkówka Easy" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="O2:Q9" totalsRowShown="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabela4" displayName="Tabela4" ref="O2:Q9" totalsRowShown="0" dataDxfId="3">
   <autoFilter ref="O2:Q9"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Indeks" dataDxfId="4"/>
-    <tableColumn id="2" name="Zadanie" dataDxfId="3"/>
-    <tableColumn id="3" name="Komentarz:" dataDxfId="2"/>
+    <tableColumn id="1" name="Indeks" dataDxfId="2"/>
+    <tableColumn id="2" name="Zadanie" dataDxfId="1"/>
+    <tableColumn id="3" name="Komentarz:" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -856,7 +859,7 @@
   <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1378,17 +1381,25 @@
       <c r="B15" s="2">
         <v>156236</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1.5</v>
+      </c>
       <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+      <c r="F15" s="3">
+        <v>2</v>
+      </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
+      <c r="I15" s="3">
+        <v>2</v>
+      </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3">
         <f>SUM(Tabela1[[#This Row],[1]:[7]])</f>
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="L15" s="3"/>
     </row>
